--- a/data/trans_dic/IP2005-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,07; 87,95</t>
+          <t>74,07; 87,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,94; 90,22</t>
+          <t>76,55; 90,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,68; 90,37</t>
+          <t>74,79; 90,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,16; 88,72</t>
+          <t>69,43; 89,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,53; 89,78</t>
+          <t>76,68; 89,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,63; 92,26</t>
+          <t>80,49; 92,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,93; 97,19</t>
+          <t>85,1; 97,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,28; 95,34</t>
+          <t>79,46; 95,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,1; 86,91</t>
+          <t>77,86; 87,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>81,21; 90,3</t>
+          <t>80,85; 89,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,38; 92,47</t>
+          <t>82,89; 92,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,02; 90,49</t>
+          <t>77,52; 90,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,13; 91,61</t>
+          <t>87,04; 91,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,71; 92,31</t>
+          <t>87,54; 92,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,73; 93,26</t>
+          <t>88,86; 93,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,7</t>
+          <t>86,61; 91,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,95; 90,05</t>
+          <t>84,73; 90,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,88; 91,93</t>
+          <t>86,7; 91,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,41; 94,2</t>
+          <t>90,08; 94,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,96; 91,15</t>
+          <t>86,04; 91,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,64; 90,15</t>
+          <t>86,77; 90,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,0; 91,41</t>
+          <t>88,01; 91,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,24; 93,25</t>
+          <t>90,17; 93,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,0; 90,78</t>
+          <t>86,98; 90,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,47; 94,22</t>
+          <t>86,65; 94,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,52; 98,21</t>
+          <t>93,21; 98,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,39; 96,42</t>
+          <t>90,05; 96,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,15; 91,3</t>
+          <t>82,39; 91,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,33; 97,15</t>
+          <t>91,18; 97,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,89; 97,01</t>
+          <t>90,87; 96,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,94; 97,73</t>
+          <t>92,14; 97,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,48; 87,42</t>
+          <t>77,39; 87,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,21; 95,11</t>
+          <t>90,39; 95,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,84</t>
+          <t>93,14; 97,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,47; 96,5</t>
+          <t>92,19; 96,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,7; 88,38</t>
+          <t>81,6; 88,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,77; 90,61</t>
+          <t>86,6; 90,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,66</t>
+          <t>88,87; 92,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,01</t>
+          <t>89,28; 92,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,72; 90,22</t>
+          <t>85,52; 90,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,64</t>
+          <t>86,76; 90,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,34; 92,18</t>
+          <t>88,32; 92,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,58</t>
+          <t>91,44; 94,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,54</t>
+          <t>85,1; 89,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,35; 90,16</t>
+          <t>87,36; 90,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,23; 91,88</t>
+          <t>89,33; 91,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,91; 93,33</t>
+          <t>90,93; 93,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>86,2; 89,29</t>
+          <t>86,05; 89,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>80,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,28%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>76,77; 89,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>81,08; 92,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,8; 97,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,66; 96,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,24; 87,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,52; 89,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,7; 90,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>69,85; 89,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>78,01; 87,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>81,58; 90,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,28; 91,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>78,72; 90,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,77%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>89,15%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,07; 87,63</t>
+          <t>84,9; 90,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,55; 90,48</t>
+          <t>86,54; 91,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,79; 90,26</t>
+          <t>90,15; 94,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 89,28</t>
+          <t>86,29; 91,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,68; 89,63</t>
+          <t>87,22; 91,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,49; 92,51</t>
+          <t>88,06; 92,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,1; 97,08</t>
+          <t>88,92; 93,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,46; 95,37</t>
+          <t>86,26; 91,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,86; 87,16</t>
+          <t>86,91; 90,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>80,85; 89,79</t>
+          <t>88,16; 91,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,89; 92,18</t>
+          <t>90,31; 93,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>77,52; 90,31</t>
+          <t>87,25; 91,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>85,18%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,04; 91,51</t>
+          <t>91,14; 97,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,54; 92,37</t>
+          <t>90,7; 96,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,86; 93,22</t>
+          <t>92,29; 97,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,61; 91,88</t>
+          <t>77,48; 87,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,73; 90,04</t>
+          <t>86,5; 94,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,7; 91,96</t>
+          <t>93,26; 98,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,08; 94,28</t>
+          <t>90,02; 96,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,04; 91,06</t>
+          <t>81,79; 91,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,77; 90,1</t>
+          <t>90,2; 95,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,01; 91,38</t>
+          <t>92,92; 96,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,17; 93,35</t>
+          <t>92,15; 96,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,98; 90,73</t>
+          <t>81,8; 88,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>87,9%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,65; 94,48</t>
+          <t>86,8; 90,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,21; 98,26</t>
+          <t>88,31; 92,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,05; 96,55</t>
+          <t>91,3; 94,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,39; 91,37</t>
+          <t>85,36; 90,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,18; 97,18</t>
+          <t>86,83; 90,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,87; 96,97</t>
+          <t>88,95; 92,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,14; 97,88</t>
+          <t>89,35; 92,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,39; 87,56</t>
+          <t>85,67; 90,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,39; 95,24</t>
+          <t>87,3; 90,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,14; 97,05</t>
+          <t>89,26; 91,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,19; 96,46</t>
+          <t>90,9; 93,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,43</t>
+          <t>86,3; 89,51</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>88,82%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>90,91%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>91,19%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>88,11%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>90,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>93,23%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>87,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>88,83%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>90,63%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>92,18%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>87,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>86,6; 90,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>88,87; 92,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>89,28; 92,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>85,52; 90,01</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>86,76; 90,76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>88,32; 92,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>91,44; 94,71</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>85,1; 89,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>87,36; 90,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>89,33; 91,94</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>90,93; 93,34</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>86,05; 89,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
